--- a/Surface Settlement/template_test1.xlsx
+++ b/Surface Settlement/template_test1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\CooCoo\postdoc_um\projects\tunneling\database\to prof hannah\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Database\Surface Settlement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39729ECE-6C75-4B75-8B1E-A2D763519114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99FE917-7942-4571-B1B8-C19594FA34DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40260" yWindow="1860" windowWidth="19185" windowHeight="14970" activeTab="2" xr2:uid="{23A04F31-3D16-480B-8928-E1B4F80BD64E}"/>
+    <workbookView xWindow="39915" yWindow="1515" windowWidth="19185" windowHeight="14970" activeTab="2" xr2:uid="{23A04F31-3D16-480B-8928-E1B4F80BD64E}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Information" sheetId="5" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="125">
   <si>
     <t>Tunnel Geometry</t>
   </si>
@@ -1883,7 +1883,7 @@
   <dimension ref="A1:K265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A11" sqref="A11:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2242,39 +2242,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
-        <v>43</v>
-      </c>
-      <c r="B11" s="25">
-        <v>9.5956942148760334</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="24">
-        <v>110</v>
-      </c>
-      <c r="E11" s="24">
-        <v>170</v>
-      </c>
-      <c r="F11" s="24">
-        <v>29</v>
-      </c>
-      <c r="G11" s="26">
-        <v>-0.69324510075737855</v>
-      </c>
-      <c r="H11" s="24">
-        <v>19778</v>
-      </c>
-      <c r="I11" s="24">
-        <v>2874</v>
-      </c>
-      <c r="J11" s="24">
-        <v>18250</v>
-      </c>
-      <c r="K11" s="24">
-        <v>3.1800000000004047</v>
-      </c>
+      <c r="B11" s="25"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="25"/>
